--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Wnt2-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.776364333333333</v>
+        <v>2.544438666666667</v>
       </c>
       <c r="N2">
-        <v>8.329093</v>
+        <v>7.633316000000001</v>
       </c>
       <c r="O2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="P2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="Q2">
-        <v>0.1528064656327778</v>
+        <v>0.1400416634822222</v>
       </c>
       <c r="R2">
-        <v>1.375258190695</v>
+        <v>1.26037497134</v>
       </c>
       <c r="S2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
       <c r="T2">
-        <v>0.2206324039768381</v>
+        <v>0.201325300207035</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +623,10 @@
         <v>26.424676</v>
       </c>
       <c r="O3">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="P3">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
       <c r="Q3">
         <v>0.4847900419711111</v>
@@ -638,10 +635,10 @@
         <v>4.36311037774</v>
       </c>
       <c r="S3">
-        <v>0.6999729490580858</v>
+        <v>0.6969390273602759</v>
       </c>
       <c r="T3">
-        <v>0.6999729490580857</v>
+        <v>0.696939027360276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,34 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.003041</v>
+        <v>1.273916333333333</v>
       </c>
       <c r="N4">
-        <v>0.009123000000000001</v>
+        <v>3.821749</v>
       </c>
       <c r="O4">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="P4">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="Q4">
-        <v>0.0001673715716666667</v>
+        <v>0.07011423179277779</v>
       </c>
       <c r="R4">
-        <v>0.001506344145</v>
+        <v>0.6310280861350001</v>
       </c>
       <c r="S4">
-        <v>0.0002416624981232284</v>
+        <v>0.1007969229547075</v>
       </c>
       <c r="T4">
-        <v>0.0002416624981232283</v>
+        <v>0.1007969229547075</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -738,96 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.9921066666666668</v>
+        <v>0.01186433333333333</v>
       </c>
       <c r="N5">
-        <v>2.97632</v>
+        <v>0.035593</v>
       </c>
       <c r="O5">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="P5">
-        <v>0.07884083376237279</v>
+        <v>0.0009387494779816526</v>
       </c>
       <c r="Q5">
-        <v>0.05460389742222223</v>
+        <v>0.0006529931327777777</v>
       </c>
       <c r="R5">
-        <v>0.4914350768000001</v>
+        <v>0.005876938195</v>
       </c>
       <c r="S5">
-        <v>0.0788408337623728</v>
+        <v>0.0009387494779816524</v>
       </c>
       <c r="T5">
-        <v>0.07884083376237279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.05503833333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.165115</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.003928</v>
-      </c>
-      <c r="N6">
-        <v>0.011784</v>
-      </c>
-      <c r="O6">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="P6">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="Q6">
-        <v>0.0002161905733333333</v>
-      </c>
-      <c r="R6">
-        <v>0.00194571516</v>
-      </c>
-      <c r="S6">
-        <v>0.0003121507045800858</v>
-      </c>
-      <c r="T6">
-        <v>0.0003121507045800858</v>
+        <v>0.0009387494779816526</v>
       </c>
     </row>
   </sheetData>
